--- a/PREGAME/1_ELICITACION/1.6 BACKLOG/G3_Backlog_V1.0.xlsx
+++ b/PREGAME/1_ELICITACION/1.6 BACKLOG/G3_Backlog_V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/incedillo_espe_edu_ec/Documents/15390_G3_Aseguramiento de la calidad/Proyecto Documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\UNIVERSIDAD\Aseguramiento de la Calidad del Software\Segundo Parcial\15390_G3_ACSW\PREGAME\1_ELICITACION\1.6 BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2287787-F789-45BA-9983-908A5FC48552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05052C9B-7E72-40F4-B94E-7B55E15015DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="16215" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -455,10 +455,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,32 +482,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -820,7 +820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83909824"/>
@@ -879,7 +879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="181139536"/>
@@ -921,7 +921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -958,7 +958,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1563,6 +1563,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683846</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>402981</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4462813-D469-4124-9C9C-6A9D19D44327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4860192" y="3480288"/>
+          <a:ext cx="6459904" cy="1685193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Conclusiones:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>1. La línea base (representada en color naranja) nos proporciona un indicador del éxito del desarrollo. Las partes que se sitúan por debajo de la línea indican que se completaron a tiempo, mientras que aquellas que están por encima sugieren un retraso.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Según la línea base, que refleja las horas estimadas restantes y las horas planeadas, observamos que al principio el desarrollo se llevó a cabo conforme a lo planificado. Sin embargo, al llegar al final del proceso, las horas planeadas se cumplieron justo en el límite de tiempo, indicando la necesidad de asignar más tiempo a las tareas.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1783,11 +1866,11 @@
   </sheetPr>
   <dimension ref="A1:XFD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
@@ -1798,33 +1881,33 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="22.5" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="6" customFormat="1" ht="24.75" customHeight="1">
+    <row r="2" spans="1:16384" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -1847,187 +1930,187 @@
       <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="38"/>
-      <c r="BW2" s="38"/>
-      <c r="BX2" s="38"/>
-      <c r="BY2" s="38"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="38"/>
-      <c r="CE2" s="38"/>
-      <c r="CF2" s="38"/>
-      <c r="CG2" s="38"/>
-      <c r="CH2" s="37"/>
-      <c r="CI2" s="37"/>
-      <c r="CJ2" s="37"/>
-      <c r="CK2" s="37"/>
-      <c r="CL2" s="38"/>
-      <c r="CM2" s="38"/>
-      <c r="CN2" s="38"/>
-      <c r="CO2" s="38"/>
-      <c r="CP2" s="37"/>
-      <c r="CQ2" s="37"/>
-      <c r="CR2" s="37"/>
-      <c r="CS2" s="37"/>
-      <c r="CT2" s="38"/>
-      <c r="CU2" s="38"/>
-      <c r="CV2" s="38"/>
-      <c r="CW2" s="38"/>
-      <c r="CX2" s="37"/>
-      <c r="CY2" s="37"/>
-      <c r="CZ2" s="37"/>
-      <c r="DA2" s="37"/>
-      <c r="DB2" s="38"/>
-      <c r="DC2" s="38"/>
-      <c r="DD2" s="38"/>
-      <c r="DE2" s="38"/>
-      <c r="DF2" s="37"/>
-      <c r="DG2" s="37"/>
-      <c r="DH2" s="37"/>
-      <c r="DI2" s="37"/>
-      <c r="DJ2" s="38"/>
-      <c r="DK2" s="38"/>
-      <c r="DL2" s="38"/>
-      <c r="DM2" s="38"/>
-      <c r="DN2" s="37"/>
-      <c r="DO2" s="37"/>
-      <c r="DP2" s="37"/>
-      <c r="DQ2" s="37"/>
-      <c r="DR2" s="38"/>
-      <c r="DS2" s="38"/>
-      <c r="DT2" s="38"/>
-      <c r="DU2" s="38"/>
-      <c r="DV2" s="37"/>
-      <c r="DW2" s="37"/>
-      <c r="DX2" s="37"/>
-      <c r="DY2" s="37"/>
-      <c r="DZ2" s="38"/>
-      <c r="EA2" s="38"/>
-      <c r="EB2" s="38"/>
-      <c r="EC2" s="38"/>
-      <c r="ED2" s="37"/>
-      <c r="EE2" s="37"/>
-      <c r="EF2" s="37"/>
-      <c r="EG2" s="37"/>
-      <c r="EH2" s="38"/>
-      <c r="EI2" s="38"/>
-      <c r="EJ2" s="38"/>
-      <c r="EK2" s="38"/>
-      <c r="EL2" s="37"/>
-      <c r="EM2" s="37"/>
-      <c r="EN2" s="37"/>
-      <c r="EO2" s="37"/>
-      <c r="EP2" s="38"/>
-      <c r="EQ2" s="38"/>
-      <c r="ER2" s="38"/>
-      <c r="ES2" s="38"/>
-      <c r="ET2" s="37"/>
-      <c r="EU2" s="37"/>
-      <c r="EV2" s="37"/>
-      <c r="EW2" s="37"/>
-      <c r="EX2" s="38"/>
-      <c r="EY2" s="38"/>
-      <c r="EZ2" s="38"/>
-      <c r="FA2" s="38"/>
-      <c r="FB2" s="37"/>
-      <c r="FC2" s="37"/>
-      <c r="FD2" s="37"/>
-      <c r="FE2" s="37"/>
-      <c r="FF2" s="38"/>
-      <c r="FG2" s="38"/>
-      <c r="FH2" s="38"/>
-      <c r="FI2" s="38"/>
-      <c r="FJ2" s="37"/>
-      <c r="FK2" s="37"/>
-      <c r="FL2" s="37"/>
-      <c r="FM2" s="37"/>
-      <c r="FN2" s="38"/>
-      <c r="FO2" s="38"/>
-      <c r="FP2" s="38"/>
-      <c r="FQ2" s="38"/>
-      <c r="FR2" s="37"/>
-      <c r="FS2" s="37"/>
-      <c r="FT2" s="37"/>
-      <c r="FU2" s="37"/>
-      <c r="FV2" s="38"/>
-      <c r="FW2" s="38"/>
-      <c r="FX2" s="38"/>
-      <c r="FY2" s="38"/>
-      <c r="FZ2" s="37"/>
-      <c r="GA2" s="37"/>
-      <c r="GB2" s="37"/>
-      <c r="GC2" s="37"/>
-      <c r="GD2" s="38"/>
-      <c r="GE2" s="38"/>
-      <c r="GF2" s="38"/>
-      <c r="GG2" s="38"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="32"/>
+      <c r="BP2" s="32"/>
+      <c r="BQ2" s="32"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="32"/>
+      <c r="BW2" s="32"/>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="32"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="32"/>
+      <c r="CE2" s="32"/>
+      <c r="CF2" s="32"/>
+      <c r="CG2" s="32"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="32"/>
+      <c r="CM2" s="32"/>
+      <c r="CN2" s="32"/>
+      <c r="CO2" s="32"/>
+      <c r="CP2" s="31"/>
+      <c r="CQ2" s="31"/>
+      <c r="CR2" s="31"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="32"/>
+      <c r="CU2" s="32"/>
+      <c r="CV2" s="32"/>
+      <c r="CW2" s="32"/>
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="32"/>
+      <c r="DC2" s="32"/>
+      <c r="DD2" s="32"/>
+      <c r="DE2" s="32"/>
+      <c r="DF2" s="31"/>
+      <c r="DG2" s="31"/>
+      <c r="DH2" s="31"/>
+      <c r="DI2" s="31"/>
+      <c r="DJ2" s="32"/>
+      <c r="DK2" s="32"/>
+      <c r="DL2" s="32"/>
+      <c r="DM2" s="32"/>
+      <c r="DN2" s="31"/>
+      <c r="DO2" s="31"/>
+      <c r="DP2" s="31"/>
+      <c r="DQ2" s="31"/>
+      <c r="DR2" s="32"/>
+      <c r="DS2" s="32"/>
+      <c r="DT2" s="32"/>
+      <c r="DU2" s="32"/>
+      <c r="DV2" s="31"/>
+      <c r="DW2" s="31"/>
+      <c r="DX2" s="31"/>
+      <c r="DY2" s="31"/>
+      <c r="DZ2" s="32"/>
+      <c r="EA2" s="32"/>
+      <c r="EB2" s="32"/>
+      <c r="EC2" s="32"/>
+      <c r="ED2" s="31"/>
+      <c r="EE2" s="31"/>
+      <c r="EF2" s="31"/>
+      <c r="EG2" s="31"/>
+      <c r="EH2" s="32"/>
+      <c r="EI2" s="32"/>
+      <c r="EJ2" s="32"/>
+      <c r="EK2" s="32"/>
+      <c r="EL2" s="31"/>
+      <c r="EM2" s="31"/>
+      <c r="EN2" s="31"/>
+      <c r="EO2" s="31"/>
+      <c r="EP2" s="32"/>
+      <c r="EQ2" s="32"/>
+      <c r="ER2" s="32"/>
+      <c r="ES2" s="32"/>
+      <c r="ET2" s="31"/>
+      <c r="EU2" s="31"/>
+      <c r="EV2" s="31"/>
+      <c r="EW2" s="31"/>
+      <c r="EX2" s="32"/>
+      <c r="EY2" s="32"/>
+      <c r="EZ2" s="32"/>
+      <c r="FA2" s="32"/>
+      <c r="FB2" s="31"/>
+      <c r="FC2" s="31"/>
+      <c r="FD2" s="31"/>
+      <c r="FE2" s="31"/>
+      <c r="FF2" s="32"/>
+      <c r="FG2" s="32"/>
+      <c r="FH2" s="32"/>
+      <c r="FI2" s="32"/>
+      <c r="FJ2" s="31"/>
+      <c r="FK2" s="31"/>
+      <c r="FL2" s="31"/>
+      <c r="FM2" s="31"/>
+      <c r="FN2" s="32"/>
+      <c r="FO2" s="32"/>
+      <c r="FP2" s="32"/>
+      <c r="FQ2" s="32"/>
+      <c r="FR2" s="31"/>
+      <c r="FS2" s="31"/>
+      <c r="FT2" s="31"/>
+      <c r="FU2" s="31"/>
+      <c r="FV2" s="32"/>
+      <c r="FW2" s="32"/>
+      <c r="FX2" s="32"/>
+      <c r="FY2" s="32"/>
+      <c r="FZ2" s="31"/>
+      <c r="GA2" s="31"/>
+      <c r="GB2" s="31"/>
+      <c r="GC2" s="31"/>
+      <c r="GD2" s="32"/>
+      <c r="GE2" s="32"/>
+      <c r="GF2" s="32"/>
+      <c r="GG2" s="32"/>
       <c r="GH2" s="10"/>
       <c r="GI2" s="6" t="s">
         <v>13</v>
@@ -44540,7 +44623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" s="6" customFormat="1" ht="33.75" customHeight="1">
+    <row r="3" spans="1:16384" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -44563,187 +44646,187 @@
       <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="38"/>
-      <c r="BO3" s="38"/>
-      <c r="BP3" s="38"/>
-      <c r="BQ3" s="38"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="38"/>
-      <c r="BW3" s="38"/>
-      <c r="BX3" s="38"/>
-      <c r="BY3" s="38"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="37"/>
-      <c r="CB3" s="37"/>
-      <c r="CC3" s="37"/>
-      <c r="CD3" s="38"/>
-      <c r="CE3" s="38"/>
-      <c r="CF3" s="38"/>
-      <c r="CG3" s="38"/>
-      <c r="CH3" s="37"/>
-      <c r="CI3" s="37"/>
-      <c r="CJ3" s="37"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="38"/>
-      <c r="CM3" s="38"/>
-      <c r="CN3" s="38"/>
-      <c r="CO3" s="38"/>
-      <c r="CP3" s="37"/>
-      <c r="CQ3" s="37"/>
-      <c r="CR3" s="37"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="38"/>
-      <c r="CU3" s="38"/>
-      <c r="CV3" s="38"/>
-      <c r="CW3" s="38"/>
-      <c r="CX3" s="37"/>
-      <c r="CY3" s="37"/>
-      <c r="CZ3" s="37"/>
-      <c r="DA3" s="37"/>
-      <c r="DB3" s="38"/>
-      <c r="DC3" s="38"/>
-      <c r="DD3" s="38"/>
-      <c r="DE3" s="38"/>
-      <c r="DF3" s="37"/>
-      <c r="DG3" s="37"/>
-      <c r="DH3" s="37"/>
-      <c r="DI3" s="37"/>
-      <c r="DJ3" s="38"/>
-      <c r="DK3" s="38"/>
-      <c r="DL3" s="38"/>
-      <c r="DM3" s="38"/>
-      <c r="DN3" s="37"/>
-      <c r="DO3" s="37"/>
-      <c r="DP3" s="37"/>
-      <c r="DQ3" s="37"/>
-      <c r="DR3" s="38"/>
-      <c r="DS3" s="38"/>
-      <c r="DT3" s="38"/>
-      <c r="DU3" s="38"/>
-      <c r="DV3" s="37"/>
-      <c r="DW3" s="37"/>
-      <c r="DX3" s="37"/>
-      <c r="DY3" s="37"/>
-      <c r="DZ3" s="38"/>
-      <c r="EA3" s="38"/>
-      <c r="EB3" s="38"/>
-      <c r="EC3" s="38"/>
-      <c r="ED3" s="37"/>
-      <c r="EE3" s="37"/>
-      <c r="EF3" s="37"/>
-      <c r="EG3" s="37"/>
-      <c r="EH3" s="38"/>
-      <c r="EI3" s="38"/>
-      <c r="EJ3" s="38"/>
-      <c r="EK3" s="38"/>
-      <c r="EL3" s="37"/>
-      <c r="EM3" s="37"/>
-      <c r="EN3" s="37"/>
-      <c r="EO3" s="37"/>
-      <c r="EP3" s="38"/>
-      <c r="EQ3" s="38"/>
-      <c r="ER3" s="38"/>
-      <c r="ES3" s="38"/>
-      <c r="ET3" s="37"/>
-      <c r="EU3" s="37"/>
-      <c r="EV3" s="37"/>
-      <c r="EW3" s="37"/>
-      <c r="EX3" s="38"/>
-      <c r="EY3" s="38"/>
-      <c r="EZ3" s="38"/>
-      <c r="FA3" s="38"/>
-      <c r="FB3" s="37"/>
-      <c r="FC3" s="37"/>
-      <c r="FD3" s="37"/>
-      <c r="FE3" s="37"/>
-      <c r="FF3" s="38"/>
-      <c r="FG3" s="38"/>
-      <c r="FH3" s="38"/>
-      <c r="FI3" s="38"/>
-      <c r="FJ3" s="37"/>
-      <c r="FK3" s="37"/>
-      <c r="FL3" s="37"/>
-      <c r="FM3" s="37"/>
-      <c r="FN3" s="38"/>
-      <c r="FO3" s="38"/>
-      <c r="FP3" s="38"/>
-      <c r="FQ3" s="38"/>
-      <c r="FR3" s="37"/>
-      <c r="FS3" s="37"/>
-      <c r="FT3" s="37"/>
-      <c r="FU3" s="37"/>
-      <c r="FV3" s="38"/>
-      <c r="FW3" s="38"/>
-      <c r="FX3" s="38"/>
-      <c r="FY3" s="38"/>
-      <c r="FZ3" s="37"/>
-      <c r="GA3" s="37"/>
-      <c r="GB3" s="37"/>
-      <c r="GC3" s="37"/>
-      <c r="GD3" s="38"/>
-      <c r="GE3" s="38"/>
-      <c r="GF3" s="38"/>
-      <c r="GG3" s="38"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="32"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="31"/>
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="31"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="31"/>
+      <c r="CA3" s="31"/>
+      <c r="CB3" s="31"/>
+      <c r="CC3" s="31"/>
+      <c r="CD3" s="32"/>
+      <c r="CE3" s="32"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="32"/>
+      <c r="CH3" s="31"/>
+      <c r="CI3" s="31"/>
+      <c r="CJ3" s="31"/>
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="32"/>
+      <c r="CN3" s="32"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="31"/>
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="31"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="32"/>
+      <c r="CW3" s="32"/>
+      <c r="CX3" s="31"/>
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="31"/>
+      <c r="DB3" s="32"/>
+      <c r="DC3" s="32"/>
+      <c r="DD3" s="32"/>
+      <c r="DE3" s="32"/>
+      <c r="DF3" s="31"/>
+      <c r="DG3" s="31"/>
+      <c r="DH3" s="31"/>
+      <c r="DI3" s="31"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="32"/>
+      <c r="DL3" s="32"/>
+      <c r="DM3" s="32"/>
+      <c r="DN3" s="31"/>
+      <c r="DO3" s="31"/>
+      <c r="DP3" s="31"/>
+      <c r="DQ3" s="31"/>
+      <c r="DR3" s="32"/>
+      <c r="DS3" s="32"/>
+      <c r="DT3" s="32"/>
+      <c r="DU3" s="32"/>
+      <c r="DV3" s="31"/>
+      <c r="DW3" s="31"/>
+      <c r="DX3" s="31"/>
+      <c r="DY3" s="31"/>
+      <c r="DZ3" s="32"/>
+      <c r="EA3" s="32"/>
+      <c r="EB3" s="32"/>
+      <c r="EC3" s="32"/>
+      <c r="ED3" s="31"/>
+      <c r="EE3" s="31"/>
+      <c r="EF3" s="31"/>
+      <c r="EG3" s="31"/>
+      <c r="EH3" s="32"/>
+      <c r="EI3" s="32"/>
+      <c r="EJ3" s="32"/>
+      <c r="EK3" s="32"/>
+      <c r="EL3" s="31"/>
+      <c r="EM3" s="31"/>
+      <c r="EN3" s="31"/>
+      <c r="EO3" s="31"/>
+      <c r="EP3" s="32"/>
+      <c r="EQ3" s="32"/>
+      <c r="ER3" s="32"/>
+      <c r="ES3" s="32"/>
+      <c r="ET3" s="31"/>
+      <c r="EU3" s="31"/>
+      <c r="EV3" s="31"/>
+      <c r="EW3" s="31"/>
+      <c r="EX3" s="32"/>
+      <c r="EY3" s="32"/>
+      <c r="EZ3" s="32"/>
+      <c r="FA3" s="32"/>
+      <c r="FB3" s="31"/>
+      <c r="FC3" s="31"/>
+      <c r="FD3" s="31"/>
+      <c r="FE3" s="31"/>
+      <c r="FF3" s="32"/>
+      <c r="FG3" s="32"/>
+      <c r="FH3" s="32"/>
+      <c r="FI3" s="32"/>
+      <c r="FJ3" s="31"/>
+      <c r="FK3" s="31"/>
+      <c r="FL3" s="31"/>
+      <c r="FM3" s="31"/>
+      <c r="FN3" s="32"/>
+      <c r="FO3" s="32"/>
+      <c r="FP3" s="32"/>
+      <c r="FQ3" s="32"/>
+      <c r="FR3" s="31"/>
+      <c r="FS3" s="31"/>
+      <c r="FT3" s="31"/>
+      <c r="FU3" s="31"/>
+      <c r="FV3" s="32"/>
+      <c r="FW3" s="32"/>
+      <c r="FX3" s="32"/>
+      <c r="FY3" s="32"/>
+      <c r="FZ3" s="31"/>
+      <c r="GA3" s="31"/>
+      <c r="GB3" s="31"/>
+      <c r="GC3" s="31"/>
+      <c r="GD3" s="32"/>
+      <c r="GE3" s="32"/>
+      <c r="GF3" s="32"/>
+      <c r="GG3" s="32"/>
       <c r="GH3" s="10"/>
       <c r="GI3" s="6" t="s">
         <v>13</v>
@@ -87256,7 +87339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="15.75" customHeight="1">
+    <row r="4" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -87265,7 +87348,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:16384" ht="15.75" customHeight="1">
+    <row r="5" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -87274,7 +87357,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:16384" ht="15.75" customHeight="1">
+    <row r="6" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -87283,7 +87366,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:16384" ht="15.75" customHeight="1">
+    <row r="7" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -87292,7 +87375,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:16384" ht="15.75" customHeight="1">
+    <row r="8" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -87301,998 +87384,998 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:16384" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:16384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -88310,7 +88393,7 @@
       <selection activeCell="I6" sqref="I6:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -88320,9 +88403,9 @@
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
@@ -88348,7 +88431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28.5" customHeight="1">
+    <row r="4" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -88372,105 +88455,105 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="40" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="40" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
@@ -88496,7 +88579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="33" customHeight="1">
+    <row r="12" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
@@ -88520,95 +88603,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B14" s="39" t="s">
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="40" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="40" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B16" s="39" t="s">
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="40" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="40"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B17" s="39" t="s">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="40" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1">
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -88618,7 +88701,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="44"/>
       <c r="D19" s="45"/>
@@ -88628,991 +88711,1003 @@
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G9:H9"/>
@@ -89622,18 +89717,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -89645,13 +89728,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:I1007"/>
+  <dimension ref="A3:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="17" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="17" customWidth="1"/>
@@ -89659,7 +89742,7 @@
     <col min="7" max="16384" width="12.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
       <c r="C3" s="22" t="s">
         <v>26</v>
@@ -89683,8 +89766,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="23">
@@ -89710,8 +89793,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="23">
@@ -89737,9 +89820,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="23">
@@ -89765,9 +89848,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="23">
@@ -89793,7 +89876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="C8" s="14"/>
       <c r="D8" s="20"/>
@@ -89803,9 +89886,9 @@
       <c r="H8" s="20"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="23">
@@ -89831,8 +89914,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="46" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="36" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="23">
@@ -89858,27 +89941,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1">
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="36">
         <v>0.5</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="36">
         <v>0.5</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="36">
         <v>0.5</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="36">
         <v>0.5</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="36">
         <v>0</v>
       </c>
       <c r="I11" s="25">
@@ -89886,27 +89969,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="19" customFormat="1">
+    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="36">
         <v>0.5</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="36">
         <v>0</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="36">
         <v>0</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="36">
         <v>0</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="36">
         <v>0.5</v>
       </c>
       <c r="I12" s="25">
@@ -89914,7 +89997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="19" customFormat="1">
+    <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -89925,7 +90008,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="1:9" s="19" customFormat="1">
+    <row r="14" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -89936,7 +90019,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="15"/>
       <c r="D15" s="20"/>
@@ -89946,7 +90029,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
         <v>50</v>
       </c>
@@ -89976,7 +90059,7 @@
       </c>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
         <v>51</v>
       </c>
@@ -90006,981 +90089,6 @@
       </c>
       <c r="I18" s="28"/>
     </row>
-    <row r="33" s="17" customFormat="1"/>
-    <row r="34" s="17" customFormat="1"/>
-    <row r="35" s="17" customFormat="1"/>
-    <row r="36" s="17" customFormat="1"/>
-    <row r="37" s="17" customFormat="1"/>
-    <row r="38" s="17" customFormat="1"/>
-    <row r="39" s="17" customFormat="1"/>
-    <row r="40" s="17" customFormat="1"/>
-    <row r="41" s="17" customFormat="1"/>
-    <row r="42" s="17" customFormat="1"/>
-    <row r="43" s="17" customFormat="1"/>
-    <row r="44" s="17" customFormat="1"/>
-    <row r="45" s="17" customFormat="1"/>
-    <row r="46" s="17" customFormat="1"/>
-    <row r="47" s="17" customFormat="1"/>
-    <row r="48" s="17" customFormat="1"/>
-    <row r="49" s="17" customFormat="1"/>
-    <row r="50" s="17" customFormat="1"/>
-    <row r="51" s="17" customFormat="1"/>
-    <row r="52" s="17" customFormat="1"/>
-    <row r="53" s="17" customFormat="1"/>
-    <row r="54" s="17" customFormat="1"/>
-    <row r="55" s="17" customFormat="1"/>
-    <row r="56" s="17" customFormat="1"/>
-    <row r="57" s="17" customFormat="1"/>
-    <row r="58" s="17" customFormat="1"/>
-    <row r="59" s="17" customFormat="1"/>
-    <row r="60" s="17" customFormat="1"/>
-    <row r="61" s="17" customFormat="1"/>
-    <row r="62" s="17" customFormat="1"/>
-    <row r="63" s="17" customFormat="1"/>
-    <row r="64" s="17" customFormat="1"/>
-    <row r="65" s="17" customFormat="1"/>
-    <row r="66" s="17" customFormat="1"/>
-    <row r="67" s="17" customFormat="1"/>
-    <row r="68" s="17" customFormat="1"/>
-    <row r="69" s="17" customFormat="1"/>
-    <row r="70" s="17" customFormat="1"/>
-    <row r="71" s="17" customFormat="1"/>
-    <row r="72" s="17" customFormat="1"/>
-    <row r="73" s="17" customFormat="1"/>
-    <row r="74" s="17" customFormat="1"/>
-    <row r="75" s="17" customFormat="1"/>
-    <row r="76" s="17" customFormat="1"/>
-    <row r="77" s="17" customFormat="1"/>
-    <row r="78" s="17" customFormat="1"/>
-    <row r="79" s="17" customFormat="1"/>
-    <row r="80" s="17" customFormat="1"/>
-    <row r="81" s="17" customFormat="1"/>
-    <row r="82" s="17" customFormat="1"/>
-    <row r="83" s="17" customFormat="1"/>
-    <row r="84" s="17" customFormat="1"/>
-    <row r="85" s="17" customFormat="1"/>
-    <row r="86" s="17" customFormat="1"/>
-    <row r="87" s="17" customFormat="1"/>
-    <row r="88" s="17" customFormat="1"/>
-    <row r="89" s="17" customFormat="1"/>
-    <row r="90" s="17" customFormat="1"/>
-    <row r="91" s="17" customFormat="1"/>
-    <row r="92" s="17" customFormat="1"/>
-    <row r="93" s="17" customFormat="1"/>
-    <row r="94" s="17" customFormat="1"/>
-    <row r="95" s="17" customFormat="1"/>
-    <row r="96" s="17" customFormat="1"/>
-    <row r="97" s="17" customFormat="1"/>
-    <row r="98" s="17" customFormat="1"/>
-    <row r="99" s="17" customFormat="1"/>
-    <row r="100" s="17" customFormat="1"/>
-    <row r="101" s="17" customFormat="1"/>
-    <row r="102" s="17" customFormat="1"/>
-    <row r="103" s="17" customFormat="1"/>
-    <row r="104" s="17" customFormat="1"/>
-    <row r="105" s="17" customFormat="1"/>
-    <row r="106" s="17" customFormat="1"/>
-    <row r="107" s="17" customFormat="1"/>
-    <row r="108" s="17" customFormat="1"/>
-    <row r="109" s="17" customFormat="1"/>
-    <row r="110" s="17" customFormat="1"/>
-    <row r="111" s="17" customFormat="1"/>
-    <row r="112" s="17" customFormat="1"/>
-    <row r="113" s="17" customFormat="1"/>
-    <row r="114" s="17" customFormat="1"/>
-    <row r="115" s="17" customFormat="1"/>
-    <row r="116" s="17" customFormat="1"/>
-    <row r="117" s="17" customFormat="1"/>
-    <row r="118" s="17" customFormat="1"/>
-    <row r="119" s="17" customFormat="1"/>
-    <row r="120" s="17" customFormat="1"/>
-    <row r="121" s="17" customFormat="1"/>
-    <row r="122" s="17" customFormat="1"/>
-    <row r="123" s="17" customFormat="1"/>
-    <row r="124" s="17" customFormat="1"/>
-    <row r="125" s="17" customFormat="1"/>
-    <row r="126" s="17" customFormat="1"/>
-    <row r="127" s="17" customFormat="1"/>
-    <row r="128" s="17" customFormat="1"/>
-    <row r="129" s="17" customFormat="1"/>
-    <row r="130" s="17" customFormat="1"/>
-    <row r="131" s="17" customFormat="1"/>
-    <row r="132" s="17" customFormat="1"/>
-    <row r="133" s="17" customFormat="1"/>
-    <row r="134" s="17" customFormat="1"/>
-    <row r="135" s="17" customFormat="1"/>
-    <row r="136" s="17" customFormat="1"/>
-    <row r="137" s="17" customFormat="1"/>
-    <row r="138" s="17" customFormat="1"/>
-    <row r="139" s="17" customFormat="1"/>
-    <row r="140" s="17" customFormat="1"/>
-    <row r="141" s="17" customFormat="1"/>
-    <row r="142" s="17" customFormat="1"/>
-    <row r="143" s="17" customFormat="1"/>
-    <row r="144" s="17" customFormat="1"/>
-    <row r="145" s="17" customFormat="1"/>
-    <row r="146" s="17" customFormat="1"/>
-    <row r="147" s="17" customFormat="1"/>
-    <row r="148" s="17" customFormat="1"/>
-    <row r="149" s="17" customFormat="1"/>
-    <row r="150" s="17" customFormat="1"/>
-    <row r="151" s="17" customFormat="1"/>
-    <row r="152" s="17" customFormat="1"/>
-    <row r="153" s="17" customFormat="1"/>
-    <row r="154" s="17" customFormat="1"/>
-    <row r="155" s="17" customFormat="1"/>
-    <row r="156" s="17" customFormat="1"/>
-    <row r="157" s="17" customFormat="1"/>
-    <row r="158" s="17" customFormat="1"/>
-    <row r="159" s="17" customFormat="1"/>
-    <row r="160" s="17" customFormat="1"/>
-    <row r="161" s="17" customFormat="1"/>
-    <row r="162" s="17" customFormat="1"/>
-    <row r="163" s="17" customFormat="1"/>
-    <row r="164" s="17" customFormat="1"/>
-    <row r="165" s="17" customFormat="1"/>
-    <row r="166" s="17" customFormat="1"/>
-    <row r="167" s="17" customFormat="1"/>
-    <row r="168" s="17" customFormat="1"/>
-    <row r="169" s="17" customFormat="1"/>
-    <row r="170" s="17" customFormat="1"/>
-    <row r="171" s="17" customFormat="1"/>
-    <row r="172" s="17" customFormat="1"/>
-    <row r="173" s="17" customFormat="1"/>
-    <row r="174" s="17" customFormat="1"/>
-    <row r="175" s="17" customFormat="1"/>
-    <row r="176" s="17" customFormat="1"/>
-    <row r="177" s="17" customFormat="1"/>
-    <row r="178" s="17" customFormat="1"/>
-    <row r="179" s="17" customFormat="1"/>
-    <row r="180" s="17" customFormat="1"/>
-    <row r="181" s="17" customFormat="1"/>
-    <row r="182" s="17" customFormat="1"/>
-    <row r="183" s="17" customFormat="1"/>
-    <row r="184" s="17" customFormat="1"/>
-    <row r="185" s="17" customFormat="1"/>
-    <row r="186" s="17" customFormat="1"/>
-    <row r="187" s="17" customFormat="1"/>
-    <row r="188" s="17" customFormat="1"/>
-    <row r="189" s="17" customFormat="1"/>
-    <row r="190" s="17" customFormat="1"/>
-    <row r="191" s="17" customFormat="1"/>
-    <row r="192" s="17" customFormat="1"/>
-    <row r="193" s="17" customFormat="1"/>
-    <row r="194" s="17" customFormat="1"/>
-    <row r="195" s="17" customFormat="1"/>
-    <row r="196" s="17" customFormat="1"/>
-    <row r="197" s="17" customFormat="1"/>
-    <row r="198" s="17" customFormat="1"/>
-    <row r="199" s="17" customFormat="1"/>
-    <row r="200" s="17" customFormat="1"/>
-    <row r="201" s="17" customFormat="1"/>
-    <row r="202" s="17" customFormat="1"/>
-    <row r="203" s="17" customFormat="1"/>
-    <row r="204" s="17" customFormat="1"/>
-    <row r="205" s="17" customFormat="1"/>
-    <row r="206" s="17" customFormat="1"/>
-    <row r="207" s="17" customFormat="1"/>
-    <row r="208" s="17" customFormat="1"/>
-    <row r="209" s="17" customFormat="1"/>
-    <row r="210" s="17" customFormat="1"/>
-    <row r="211" s="17" customFormat="1"/>
-    <row r="212" s="17" customFormat="1"/>
-    <row r="213" s="17" customFormat="1"/>
-    <row r="214" s="17" customFormat="1"/>
-    <row r="215" s="17" customFormat="1"/>
-    <row r="216" s="17" customFormat="1"/>
-    <row r="217" s="17" customFormat="1"/>
-    <row r="218" s="17" customFormat="1"/>
-    <row r="219" s="17" customFormat="1"/>
-    <row r="220" s="17" customFormat="1"/>
-    <row r="221" s="17" customFormat="1"/>
-    <row r="222" s="17" customFormat="1"/>
-    <row r="223" s="17" customFormat="1"/>
-    <row r="224" s="17" customFormat="1"/>
-    <row r="225" s="17" customFormat="1"/>
-    <row r="226" s="17" customFormat="1"/>
-    <row r="227" s="17" customFormat="1"/>
-    <row r="228" s="17" customFormat="1"/>
-    <row r="229" s="17" customFormat="1"/>
-    <row r="230" s="17" customFormat="1"/>
-    <row r="231" s="17" customFormat="1"/>
-    <row r="232" s="17" customFormat="1"/>
-    <row r="233" s="17" customFormat="1"/>
-    <row r="234" s="17" customFormat="1"/>
-    <row r="235" s="17" customFormat="1"/>
-    <row r="236" s="17" customFormat="1"/>
-    <row r="237" s="17" customFormat="1"/>
-    <row r="238" s="17" customFormat="1"/>
-    <row r="239" s="17" customFormat="1"/>
-    <row r="240" s="17" customFormat="1"/>
-    <row r="241" s="17" customFormat="1"/>
-    <row r="242" s="17" customFormat="1"/>
-    <row r="243" s="17" customFormat="1"/>
-    <row r="244" s="17" customFormat="1"/>
-    <row r="245" s="17" customFormat="1"/>
-    <row r="246" s="17" customFormat="1"/>
-    <row r="247" s="17" customFormat="1"/>
-    <row r="248" s="17" customFormat="1"/>
-    <row r="249" s="17" customFormat="1"/>
-    <row r="250" s="17" customFormat="1"/>
-    <row r="251" s="17" customFormat="1"/>
-    <row r="252" s="17" customFormat="1"/>
-    <row r="253" s="17" customFormat="1"/>
-    <row r="254" s="17" customFormat="1"/>
-    <row r="255" s="17" customFormat="1"/>
-    <row r="256" s="17" customFormat="1"/>
-    <row r="257" s="17" customFormat="1"/>
-    <row r="258" s="17" customFormat="1"/>
-    <row r="259" s="17" customFormat="1"/>
-    <row r="260" s="17" customFormat="1"/>
-    <row r="261" s="17" customFormat="1"/>
-    <row r="262" s="17" customFormat="1"/>
-    <row r="263" s="17" customFormat="1"/>
-    <row r="264" s="17" customFormat="1"/>
-    <row r="265" s="17" customFormat="1"/>
-    <row r="266" s="17" customFormat="1"/>
-    <row r="267" s="17" customFormat="1"/>
-    <row r="268" s="17" customFormat="1"/>
-    <row r="269" s="17" customFormat="1"/>
-    <row r="270" s="17" customFormat="1"/>
-    <row r="271" s="17" customFormat="1"/>
-    <row r="272" s="17" customFormat="1"/>
-    <row r="273" s="17" customFormat="1"/>
-    <row r="274" s="17" customFormat="1"/>
-    <row r="275" s="17" customFormat="1"/>
-    <row r="276" s="17" customFormat="1"/>
-    <row r="277" s="17" customFormat="1"/>
-    <row r="278" s="17" customFormat="1"/>
-    <row r="279" s="17" customFormat="1"/>
-    <row r="280" s="17" customFormat="1"/>
-    <row r="281" s="17" customFormat="1"/>
-    <row r="282" s="17" customFormat="1"/>
-    <row r="283" s="17" customFormat="1"/>
-    <row r="284" s="17" customFormat="1"/>
-    <row r="285" s="17" customFormat="1"/>
-    <row r="286" s="17" customFormat="1"/>
-    <row r="287" s="17" customFormat="1"/>
-    <row r="288" s="17" customFormat="1"/>
-    <row r="289" s="17" customFormat="1"/>
-    <row r="290" s="17" customFormat="1"/>
-    <row r="291" s="17" customFormat="1"/>
-    <row r="292" s="17" customFormat="1"/>
-    <row r="293" s="17" customFormat="1"/>
-    <row r="294" s="17" customFormat="1"/>
-    <row r="295" s="17" customFormat="1"/>
-    <row r="296" s="17" customFormat="1"/>
-    <row r="297" s="17" customFormat="1"/>
-    <row r="298" s="17" customFormat="1"/>
-    <row r="299" s="17" customFormat="1"/>
-    <row r="300" s="17" customFormat="1"/>
-    <row r="301" s="17" customFormat="1"/>
-    <row r="302" s="17" customFormat="1"/>
-    <row r="303" s="17" customFormat="1"/>
-    <row r="304" s="17" customFormat="1"/>
-    <row r="305" s="17" customFormat="1"/>
-    <row r="306" s="17" customFormat="1"/>
-    <row r="307" s="17" customFormat="1"/>
-    <row r="308" s="17" customFormat="1"/>
-    <row r="309" s="17" customFormat="1"/>
-    <row r="310" s="17" customFormat="1"/>
-    <row r="311" s="17" customFormat="1"/>
-    <row r="312" s="17" customFormat="1"/>
-    <row r="313" s="17" customFormat="1"/>
-    <row r="314" s="17" customFormat="1"/>
-    <row r="315" s="17" customFormat="1"/>
-    <row r="316" s="17" customFormat="1"/>
-    <row r="317" s="17" customFormat="1"/>
-    <row r="318" s="17" customFormat="1"/>
-    <row r="319" s="17" customFormat="1"/>
-    <row r="320" s="17" customFormat="1"/>
-    <row r="321" s="17" customFormat="1"/>
-    <row r="322" s="17" customFormat="1"/>
-    <row r="323" s="17" customFormat="1"/>
-    <row r="324" s="17" customFormat="1"/>
-    <row r="325" s="17" customFormat="1"/>
-    <row r="326" s="17" customFormat="1"/>
-    <row r="327" s="17" customFormat="1"/>
-    <row r="328" s="17" customFormat="1"/>
-    <row r="329" s="17" customFormat="1"/>
-    <row r="330" s="17" customFormat="1"/>
-    <row r="331" s="17" customFormat="1"/>
-    <row r="332" s="17" customFormat="1"/>
-    <row r="333" s="17" customFormat="1"/>
-    <row r="334" s="17" customFormat="1"/>
-    <row r="335" s="17" customFormat="1"/>
-    <row r="336" s="17" customFormat="1"/>
-    <row r="337" s="17" customFormat="1"/>
-    <row r="338" s="17" customFormat="1"/>
-    <row r="339" s="17" customFormat="1"/>
-    <row r="340" s="17" customFormat="1"/>
-    <row r="341" s="17" customFormat="1"/>
-    <row r="342" s="17" customFormat="1"/>
-    <row r="343" s="17" customFormat="1"/>
-    <row r="344" s="17" customFormat="1"/>
-    <row r="345" s="17" customFormat="1"/>
-    <row r="346" s="17" customFormat="1"/>
-    <row r="347" s="17" customFormat="1"/>
-    <row r="348" s="17" customFormat="1"/>
-    <row r="349" s="17" customFormat="1"/>
-    <row r="350" s="17" customFormat="1"/>
-    <row r="351" s="17" customFormat="1"/>
-    <row r="352" s="17" customFormat="1"/>
-    <row r="353" s="17" customFormat="1"/>
-    <row r="354" s="17" customFormat="1"/>
-    <row r="355" s="17" customFormat="1"/>
-    <row r="356" s="17" customFormat="1"/>
-    <row r="357" s="17" customFormat="1"/>
-    <row r="358" s="17" customFormat="1"/>
-    <row r="359" s="17" customFormat="1"/>
-    <row r="360" s="17" customFormat="1"/>
-    <row r="361" s="17" customFormat="1"/>
-    <row r="362" s="17" customFormat="1"/>
-    <row r="363" s="17" customFormat="1"/>
-    <row r="364" s="17" customFormat="1"/>
-    <row r="365" s="17" customFormat="1"/>
-    <row r="366" s="17" customFormat="1"/>
-    <row r="367" s="17" customFormat="1"/>
-    <row r="368" s="17" customFormat="1"/>
-    <row r="369" s="17" customFormat="1"/>
-    <row r="370" s="17" customFormat="1"/>
-    <row r="371" s="17" customFormat="1"/>
-    <row r="372" s="17" customFormat="1"/>
-    <row r="373" s="17" customFormat="1"/>
-    <row r="374" s="17" customFormat="1"/>
-    <row r="375" s="17" customFormat="1"/>
-    <row r="376" s="17" customFormat="1"/>
-    <row r="377" s="17" customFormat="1"/>
-    <row r="378" s="17" customFormat="1"/>
-    <row r="379" s="17" customFormat="1"/>
-    <row r="380" s="17" customFormat="1"/>
-    <row r="381" s="17" customFormat="1"/>
-    <row r="382" s="17" customFormat="1"/>
-    <row r="383" s="17" customFormat="1"/>
-    <row r="384" s="17" customFormat="1"/>
-    <row r="385" s="17" customFormat="1"/>
-    <row r="386" s="17" customFormat="1"/>
-    <row r="387" s="17" customFormat="1"/>
-    <row r="388" s="17" customFormat="1"/>
-    <row r="389" s="17" customFormat="1"/>
-    <row r="390" s="17" customFormat="1"/>
-    <row r="391" s="17" customFormat="1"/>
-    <row r="392" s="17" customFormat="1"/>
-    <row r="393" s="17" customFormat="1"/>
-    <row r="394" s="17" customFormat="1"/>
-    <row r="395" s="17" customFormat="1"/>
-    <row r="396" s="17" customFormat="1"/>
-    <row r="397" s="17" customFormat="1"/>
-    <row r="398" s="17" customFormat="1"/>
-    <row r="399" s="17" customFormat="1"/>
-    <row r="400" s="17" customFormat="1"/>
-    <row r="401" s="17" customFormat="1"/>
-    <row r="402" s="17" customFormat="1"/>
-    <row r="403" s="17" customFormat="1"/>
-    <row r="404" s="17" customFormat="1"/>
-    <row r="405" s="17" customFormat="1"/>
-    <row r="406" s="17" customFormat="1"/>
-    <row r="407" s="17" customFormat="1"/>
-    <row r="408" s="17" customFormat="1"/>
-    <row r="409" s="17" customFormat="1"/>
-    <row r="410" s="17" customFormat="1"/>
-    <row r="411" s="17" customFormat="1"/>
-    <row r="412" s="17" customFormat="1"/>
-    <row r="413" s="17" customFormat="1"/>
-    <row r="414" s="17" customFormat="1"/>
-    <row r="415" s="17" customFormat="1"/>
-    <row r="416" s="17" customFormat="1"/>
-    <row r="417" s="17" customFormat="1"/>
-    <row r="418" s="17" customFormat="1"/>
-    <row r="419" s="17" customFormat="1"/>
-    <row r="420" s="17" customFormat="1"/>
-    <row r="421" s="17" customFormat="1"/>
-    <row r="422" s="17" customFormat="1"/>
-    <row r="423" s="17" customFormat="1"/>
-    <row r="424" s="17" customFormat="1"/>
-    <row r="425" s="17" customFormat="1"/>
-    <row r="426" s="17" customFormat="1"/>
-    <row r="427" s="17" customFormat="1"/>
-    <row r="428" s="17" customFormat="1"/>
-    <row r="429" s="17" customFormat="1"/>
-    <row r="430" s="17" customFormat="1"/>
-    <row r="431" s="17" customFormat="1"/>
-    <row r="432" s="17" customFormat="1"/>
-    <row r="433" s="17" customFormat="1"/>
-    <row r="434" s="17" customFormat="1"/>
-    <row r="435" s="17" customFormat="1"/>
-    <row r="436" s="17" customFormat="1"/>
-    <row r="437" s="17" customFormat="1"/>
-    <row r="438" s="17" customFormat="1"/>
-    <row r="439" s="17" customFormat="1"/>
-    <row r="440" s="17" customFormat="1"/>
-    <row r="441" s="17" customFormat="1"/>
-    <row r="442" s="17" customFormat="1"/>
-    <row r="443" s="17" customFormat="1"/>
-    <row r="444" s="17" customFormat="1"/>
-    <row r="445" s="17" customFormat="1"/>
-    <row r="446" s="17" customFormat="1"/>
-    <row r="447" s="17" customFormat="1"/>
-    <row r="448" s="17" customFormat="1"/>
-    <row r="449" s="17" customFormat="1"/>
-    <row r="450" s="17" customFormat="1"/>
-    <row r="451" s="17" customFormat="1"/>
-    <row r="452" s="17" customFormat="1"/>
-    <row r="453" s="17" customFormat="1"/>
-    <row r="454" s="17" customFormat="1"/>
-    <row r="455" s="17" customFormat="1"/>
-    <row r="456" s="17" customFormat="1"/>
-    <row r="457" s="17" customFormat="1"/>
-    <row r="458" s="17" customFormat="1"/>
-    <row r="459" s="17" customFormat="1"/>
-    <row r="460" s="17" customFormat="1"/>
-    <row r="461" s="17" customFormat="1"/>
-    <row r="462" s="17" customFormat="1"/>
-    <row r="463" s="17" customFormat="1"/>
-    <row r="464" s="17" customFormat="1"/>
-    <row r="465" s="17" customFormat="1"/>
-    <row r="466" s="17" customFormat="1"/>
-    <row r="467" s="17" customFormat="1"/>
-    <row r="468" s="17" customFormat="1"/>
-    <row r="469" s="17" customFormat="1"/>
-    <row r="470" s="17" customFormat="1"/>
-    <row r="471" s="17" customFormat="1"/>
-    <row r="472" s="17" customFormat="1"/>
-    <row r="473" s="17" customFormat="1"/>
-    <row r="474" s="17" customFormat="1"/>
-    <row r="475" s="17" customFormat="1"/>
-    <row r="476" s="17" customFormat="1"/>
-    <row r="477" s="17" customFormat="1"/>
-    <row r="478" s="17" customFormat="1"/>
-    <row r="479" s="17" customFormat="1"/>
-    <row r="480" s="17" customFormat="1"/>
-    <row r="481" s="17" customFormat="1"/>
-    <row r="482" s="17" customFormat="1"/>
-    <row r="483" s="17" customFormat="1"/>
-    <row r="484" s="17" customFormat="1"/>
-    <row r="485" s="17" customFormat="1"/>
-    <row r="486" s="17" customFormat="1"/>
-    <row r="487" s="17" customFormat="1"/>
-    <row r="488" s="17" customFormat="1"/>
-    <row r="489" s="17" customFormat="1"/>
-    <row r="490" s="17" customFormat="1"/>
-    <row r="491" s="17" customFormat="1"/>
-    <row r="492" s="17" customFormat="1"/>
-    <row r="493" s="17" customFormat="1"/>
-    <row r="494" s="17" customFormat="1"/>
-    <row r="495" s="17" customFormat="1"/>
-    <row r="496" s="17" customFormat="1"/>
-    <row r="497" s="17" customFormat="1"/>
-    <row r="498" s="17" customFormat="1"/>
-    <row r="499" s="17" customFormat="1"/>
-    <row r="500" s="17" customFormat="1"/>
-    <row r="501" s="17" customFormat="1"/>
-    <row r="502" s="17" customFormat="1"/>
-    <row r="503" s="17" customFormat="1"/>
-    <row r="504" s="17" customFormat="1"/>
-    <row r="505" s="17" customFormat="1"/>
-    <row r="506" s="17" customFormat="1"/>
-    <row r="507" s="17" customFormat="1"/>
-    <row r="508" s="17" customFormat="1"/>
-    <row r="509" s="17" customFormat="1"/>
-    <row r="510" s="17" customFormat="1"/>
-    <row r="511" s="17" customFormat="1"/>
-    <row r="512" s="17" customFormat="1"/>
-    <row r="513" s="17" customFormat="1"/>
-    <row r="514" s="17" customFormat="1"/>
-    <row r="515" s="17" customFormat="1"/>
-    <row r="516" s="17" customFormat="1"/>
-    <row r="517" s="17" customFormat="1"/>
-    <row r="518" s="17" customFormat="1"/>
-    <row r="519" s="17" customFormat="1"/>
-    <row r="520" s="17" customFormat="1"/>
-    <row r="521" s="17" customFormat="1"/>
-    <row r="522" s="17" customFormat="1"/>
-    <row r="523" s="17" customFormat="1"/>
-    <row r="524" s="17" customFormat="1"/>
-    <row r="525" s="17" customFormat="1"/>
-    <row r="526" s="17" customFormat="1"/>
-    <row r="527" s="17" customFormat="1"/>
-    <row r="528" s="17" customFormat="1"/>
-    <row r="529" s="17" customFormat="1"/>
-    <row r="530" s="17" customFormat="1"/>
-    <row r="531" s="17" customFormat="1"/>
-    <row r="532" s="17" customFormat="1"/>
-    <row r="533" s="17" customFormat="1"/>
-    <row r="534" s="17" customFormat="1"/>
-    <row r="535" s="17" customFormat="1"/>
-    <row r="536" s="17" customFormat="1"/>
-    <row r="537" s="17" customFormat="1"/>
-    <row r="538" s="17" customFormat="1"/>
-    <row r="539" s="17" customFormat="1"/>
-    <row r="540" s="17" customFormat="1"/>
-    <row r="541" s="17" customFormat="1"/>
-    <row r="542" s="17" customFormat="1"/>
-    <row r="543" s="17" customFormat="1"/>
-    <row r="544" s="17" customFormat="1"/>
-    <row r="545" s="17" customFormat="1"/>
-    <row r="546" s="17" customFormat="1"/>
-    <row r="547" s="17" customFormat="1"/>
-    <row r="548" s="17" customFormat="1"/>
-    <row r="549" s="17" customFormat="1"/>
-    <row r="550" s="17" customFormat="1"/>
-    <row r="551" s="17" customFormat="1"/>
-    <row r="552" s="17" customFormat="1"/>
-    <row r="553" s="17" customFormat="1"/>
-    <row r="554" s="17" customFormat="1"/>
-    <row r="555" s="17" customFormat="1"/>
-    <row r="556" s="17" customFormat="1"/>
-    <row r="557" s="17" customFormat="1"/>
-    <row r="558" s="17" customFormat="1"/>
-    <row r="559" s="17" customFormat="1"/>
-    <row r="560" s="17" customFormat="1"/>
-    <row r="561" s="17" customFormat="1"/>
-    <row r="562" s="17" customFormat="1"/>
-    <row r="563" s="17" customFormat="1"/>
-    <row r="564" s="17" customFormat="1"/>
-    <row r="565" s="17" customFormat="1"/>
-    <row r="566" s="17" customFormat="1"/>
-    <row r="567" s="17" customFormat="1"/>
-    <row r="568" s="17" customFormat="1"/>
-    <row r="569" s="17" customFormat="1"/>
-    <row r="570" s="17" customFormat="1"/>
-    <row r="571" s="17" customFormat="1"/>
-    <row r="572" s="17" customFormat="1"/>
-    <row r="573" s="17" customFormat="1"/>
-    <row r="574" s="17" customFormat="1"/>
-    <row r="575" s="17" customFormat="1"/>
-    <row r="576" s="17" customFormat="1"/>
-    <row r="577" s="17" customFormat="1"/>
-    <row r="578" s="17" customFormat="1"/>
-    <row r="579" s="17" customFormat="1"/>
-    <row r="580" s="17" customFormat="1"/>
-    <row r="581" s="17" customFormat="1"/>
-    <row r="582" s="17" customFormat="1"/>
-    <row r="583" s="17" customFormat="1"/>
-    <row r="584" s="17" customFormat="1"/>
-    <row r="585" s="17" customFormat="1"/>
-    <row r="586" s="17" customFormat="1"/>
-    <row r="587" s="17" customFormat="1"/>
-    <row r="588" s="17" customFormat="1"/>
-    <row r="589" s="17" customFormat="1"/>
-    <row r="590" s="17" customFormat="1"/>
-    <row r="591" s="17" customFormat="1"/>
-    <row r="592" s="17" customFormat="1"/>
-    <row r="593" s="17" customFormat="1"/>
-    <row r="594" s="17" customFormat="1"/>
-    <row r="595" s="17" customFormat="1"/>
-    <row r="596" s="17" customFormat="1"/>
-    <row r="597" s="17" customFormat="1"/>
-    <row r="598" s="17" customFormat="1"/>
-    <row r="599" s="17" customFormat="1"/>
-    <row r="600" s="17" customFormat="1"/>
-    <row r="601" s="17" customFormat="1"/>
-    <row r="602" s="17" customFormat="1"/>
-    <row r="603" s="17" customFormat="1"/>
-    <row r="604" s="17" customFormat="1"/>
-    <row r="605" s="17" customFormat="1"/>
-    <row r="606" s="17" customFormat="1"/>
-    <row r="607" s="17" customFormat="1"/>
-    <row r="608" s="17" customFormat="1"/>
-    <row r="609" s="17" customFormat="1"/>
-    <row r="610" s="17" customFormat="1"/>
-    <row r="611" s="17" customFormat="1"/>
-    <row r="612" s="17" customFormat="1"/>
-    <row r="613" s="17" customFormat="1"/>
-    <row r="614" s="17" customFormat="1"/>
-    <row r="615" s="17" customFormat="1"/>
-    <row r="616" s="17" customFormat="1"/>
-    <row r="617" s="17" customFormat="1"/>
-    <row r="618" s="17" customFormat="1"/>
-    <row r="619" s="17" customFormat="1"/>
-    <row r="620" s="17" customFormat="1"/>
-    <row r="621" s="17" customFormat="1"/>
-    <row r="622" s="17" customFormat="1"/>
-    <row r="623" s="17" customFormat="1"/>
-    <row r="624" s="17" customFormat="1"/>
-    <row r="625" s="17" customFormat="1"/>
-    <row r="626" s="17" customFormat="1"/>
-    <row r="627" s="17" customFormat="1"/>
-    <row r="628" s="17" customFormat="1"/>
-    <row r="629" s="17" customFormat="1"/>
-    <row r="630" s="17" customFormat="1"/>
-    <row r="631" s="17" customFormat="1"/>
-    <row r="632" s="17" customFormat="1"/>
-    <row r="633" s="17" customFormat="1"/>
-    <row r="634" s="17" customFormat="1"/>
-    <row r="635" s="17" customFormat="1"/>
-    <row r="636" s="17" customFormat="1"/>
-    <row r="637" s="17" customFormat="1"/>
-    <row r="638" s="17" customFormat="1"/>
-    <row r="639" s="17" customFormat="1"/>
-    <row r="640" s="17" customFormat="1"/>
-    <row r="641" s="17" customFormat="1"/>
-    <row r="642" s="17" customFormat="1"/>
-    <row r="643" s="17" customFormat="1"/>
-    <row r="644" s="17" customFormat="1"/>
-    <row r="645" s="17" customFormat="1"/>
-    <row r="646" s="17" customFormat="1"/>
-    <row r="647" s="17" customFormat="1"/>
-    <row r="648" s="17" customFormat="1"/>
-    <row r="649" s="17" customFormat="1"/>
-    <row r="650" s="17" customFormat="1"/>
-    <row r="651" s="17" customFormat="1"/>
-    <row r="652" s="17" customFormat="1"/>
-    <row r="653" s="17" customFormat="1"/>
-    <row r="654" s="17" customFormat="1"/>
-    <row r="655" s="17" customFormat="1"/>
-    <row r="656" s="17" customFormat="1"/>
-    <row r="657" s="17" customFormat="1"/>
-    <row r="658" s="17" customFormat="1"/>
-    <row r="659" s="17" customFormat="1"/>
-    <row r="660" s="17" customFormat="1"/>
-    <row r="661" s="17" customFormat="1"/>
-    <row r="662" s="17" customFormat="1"/>
-    <row r="663" s="17" customFormat="1"/>
-    <row r="664" s="17" customFormat="1"/>
-    <row r="665" s="17" customFormat="1"/>
-    <row r="666" s="17" customFormat="1"/>
-    <row r="667" s="17" customFormat="1"/>
-    <row r="668" s="17" customFormat="1"/>
-    <row r="669" s="17" customFormat="1"/>
-    <row r="670" s="17" customFormat="1"/>
-    <row r="671" s="17" customFormat="1"/>
-    <row r="672" s="17" customFormat="1"/>
-    <row r="673" s="17" customFormat="1"/>
-    <row r="674" s="17" customFormat="1"/>
-    <row r="675" s="17" customFormat="1"/>
-    <row r="676" s="17" customFormat="1"/>
-    <row r="677" s="17" customFormat="1"/>
-    <row r="678" s="17" customFormat="1"/>
-    <row r="679" s="17" customFormat="1"/>
-    <row r="680" s="17" customFormat="1"/>
-    <row r="681" s="17" customFormat="1"/>
-    <row r="682" s="17" customFormat="1"/>
-    <row r="683" s="17" customFormat="1"/>
-    <row r="684" s="17" customFormat="1"/>
-    <row r="685" s="17" customFormat="1"/>
-    <row r="686" s="17" customFormat="1"/>
-    <row r="687" s="17" customFormat="1"/>
-    <row r="688" s="17" customFormat="1"/>
-    <row r="689" s="17" customFormat="1"/>
-    <row r="690" s="17" customFormat="1"/>
-    <row r="691" s="17" customFormat="1"/>
-    <row r="692" s="17" customFormat="1"/>
-    <row r="693" s="17" customFormat="1"/>
-    <row r="694" s="17" customFormat="1"/>
-    <row r="695" s="17" customFormat="1"/>
-    <row r="696" s="17" customFormat="1"/>
-    <row r="697" s="17" customFormat="1"/>
-    <row r="698" s="17" customFormat="1"/>
-    <row r="699" s="17" customFormat="1"/>
-    <row r="700" s="17" customFormat="1"/>
-    <row r="701" s="17" customFormat="1"/>
-    <row r="702" s="17" customFormat="1"/>
-    <row r="703" s="17" customFormat="1"/>
-    <row r="704" s="17" customFormat="1"/>
-    <row r="705" s="17" customFormat="1"/>
-    <row r="706" s="17" customFormat="1"/>
-    <row r="707" s="17" customFormat="1"/>
-    <row r="708" s="17" customFormat="1"/>
-    <row r="709" s="17" customFormat="1"/>
-    <row r="710" s="17" customFormat="1"/>
-    <row r="711" s="17" customFormat="1"/>
-    <row r="712" s="17" customFormat="1"/>
-    <row r="713" s="17" customFormat="1"/>
-    <row r="714" s="17" customFormat="1"/>
-    <row r="715" s="17" customFormat="1"/>
-    <row r="716" s="17" customFormat="1"/>
-    <row r="717" s="17" customFormat="1"/>
-    <row r="718" s="17" customFormat="1"/>
-    <row r="719" s="17" customFormat="1"/>
-    <row r="720" s="17" customFormat="1"/>
-    <row r="721" s="17" customFormat="1"/>
-    <row r="722" s="17" customFormat="1"/>
-    <row r="723" s="17" customFormat="1"/>
-    <row r="724" s="17" customFormat="1"/>
-    <row r="725" s="17" customFormat="1"/>
-    <row r="726" s="17" customFormat="1"/>
-    <row r="727" s="17" customFormat="1"/>
-    <row r="728" s="17" customFormat="1"/>
-    <row r="729" s="17" customFormat="1"/>
-    <row r="730" s="17" customFormat="1"/>
-    <row r="731" s="17" customFormat="1"/>
-    <row r="732" s="17" customFormat="1"/>
-    <row r="733" s="17" customFormat="1"/>
-    <row r="734" s="17" customFormat="1"/>
-    <row r="735" s="17" customFormat="1"/>
-    <row r="736" s="17" customFormat="1"/>
-    <row r="737" s="17" customFormat="1"/>
-    <row r="738" s="17" customFormat="1"/>
-    <row r="739" s="17" customFormat="1"/>
-    <row r="740" s="17" customFormat="1"/>
-    <row r="741" s="17" customFormat="1"/>
-    <row r="742" s="17" customFormat="1"/>
-    <row r="743" s="17" customFormat="1"/>
-    <row r="744" s="17" customFormat="1"/>
-    <row r="745" s="17" customFormat="1"/>
-    <row r="746" s="17" customFormat="1"/>
-    <row r="747" s="17" customFormat="1"/>
-    <row r="748" s="17" customFormat="1"/>
-    <row r="749" s="17" customFormat="1"/>
-    <row r="750" s="17" customFormat="1"/>
-    <row r="751" s="17" customFormat="1"/>
-    <row r="752" s="17" customFormat="1"/>
-    <row r="753" s="17" customFormat="1"/>
-    <row r="754" s="17" customFormat="1"/>
-    <row r="755" s="17" customFormat="1"/>
-    <row r="756" s="17" customFormat="1"/>
-    <row r="757" s="17" customFormat="1"/>
-    <row r="758" s="17" customFormat="1"/>
-    <row r="759" s="17" customFormat="1"/>
-    <row r="760" s="17" customFormat="1"/>
-    <row r="761" s="17" customFormat="1"/>
-    <row r="762" s="17" customFormat="1"/>
-    <row r="763" s="17" customFormat="1"/>
-    <row r="764" s="17" customFormat="1"/>
-    <row r="765" s="17" customFormat="1"/>
-    <row r="766" s="17" customFormat="1"/>
-    <row r="767" s="17" customFormat="1"/>
-    <row r="768" s="17" customFormat="1"/>
-    <row r="769" s="17" customFormat="1"/>
-    <row r="770" s="17" customFormat="1"/>
-    <row r="771" s="17" customFormat="1"/>
-    <row r="772" s="17" customFormat="1"/>
-    <row r="773" s="17" customFormat="1"/>
-    <row r="774" s="17" customFormat="1"/>
-    <row r="775" s="17" customFormat="1"/>
-    <row r="776" s="17" customFormat="1"/>
-    <row r="777" s="17" customFormat="1"/>
-    <row r="778" s="17" customFormat="1"/>
-    <row r="779" s="17" customFormat="1"/>
-    <row r="780" s="17" customFormat="1"/>
-    <row r="781" s="17" customFormat="1"/>
-    <row r="782" s="17" customFormat="1"/>
-    <row r="783" s="17" customFormat="1"/>
-    <row r="784" s="17" customFormat="1"/>
-    <row r="785" s="17" customFormat="1"/>
-    <row r="786" s="17" customFormat="1"/>
-    <row r="787" s="17" customFormat="1"/>
-    <row r="788" s="17" customFormat="1"/>
-    <row r="789" s="17" customFormat="1"/>
-    <row r="790" s="17" customFormat="1"/>
-    <row r="791" s="17" customFormat="1"/>
-    <row r="792" s="17" customFormat="1"/>
-    <row r="793" s="17" customFormat="1"/>
-    <row r="794" s="17" customFormat="1"/>
-    <row r="795" s="17" customFormat="1"/>
-    <row r="796" s="17" customFormat="1"/>
-    <row r="797" s="17" customFormat="1"/>
-    <row r="798" s="17" customFormat="1"/>
-    <row r="799" s="17" customFormat="1"/>
-    <row r="800" s="17" customFormat="1"/>
-    <row r="801" s="17" customFormat="1"/>
-    <row r="802" s="17" customFormat="1"/>
-    <row r="803" s="17" customFormat="1"/>
-    <row r="804" s="17" customFormat="1"/>
-    <row r="805" s="17" customFormat="1"/>
-    <row r="806" s="17" customFormat="1"/>
-    <row r="807" s="17" customFormat="1"/>
-    <row r="808" s="17" customFormat="1"/>
-    <row r="809" s="17" customFormat="1"/>
-    <row r="810" s="17" customFormat="1"/>
-    <row r="811" s="17" customFormat="1"/>
-    <row r="812" s="17" customFormat="1"/>
-    <row r="813" s="17" customFormat="1"/>
-    <row r="814" s="17" customFormat="1"/>
-    <row r="815" s="17" customFormat="1"/>
-    <row r="816" s="17" customFormat="1"/>
-    <row r="817" s="17" customFormat="1"/>
-    <row r="818" s="17" customFormat="1"/>
-    <row r="819" s="17" customFormat="1"/>
-    <row r="820" s="17" customFormat="1"/>
-    <row r="821" s="17" customFormat="1"/>
-    <row r="822" s="17" customFormat="1"/>
-    <row r="823" s="17" customFormat="1"/>
-    <row r="824" s="17" customFormat="1"/>
-    <row r="825" s="17" customFormat="1"/>
-    <row r="826" s="17" customFormat="1"/>
-    <row r="827" s="17" customFormat="1"/>
-    <row r="828" s="17" customFormat="1"/>
-    <row r="829" s="17" customFormat="1"/>
-    <row r="830" s="17" customFormat="1"/>
-    <row r="831" s="17" customFormat="1"/>
-    <row r="832" s="17" customFormat="1"/>
-    <row r="833" s="17" customFormat="1"/>
-    <row r="834" s="17" customFormat="1"/>
-    <row r="835" s="17" customFormat="1"/>
-    <row r="836" s="17" customFormat="1"/>
-    <row r="837" s="17" customFormat="1"/>
-    <row r="838" s="17" customFormat="1"/>
-    <row r="839" s="17" customFormat="1"/>
-    <row r="840" s="17" customFormat="1"/>
-    <row r="841" s="17" customFormat="1"/>
-    <row r="842" s="17" customFormat="1"/>
-    <row r="843" s="17" customFormat="1"/>
-    <row r="844" s="17" customFormat="1"/>
-    <row r="845" s="17" customFormat="1"/>
-    <row r="846" s="17" customFormat="1"/>
-    <row r="847" s="17" customFormat="1"/>
-    <row r="848" s="17" customFormat="1"/>
-    <row r="849" s="17" customFormat="1"/>
-    <row r="850" s="17" customFormat="1"/>
-    <row r="851" s="17" customFormat="1"/>
-    <row r="852" s="17" customFormat="1"/>
-    <row r="853" s="17" customFormat="1"/>
-    <row r="854" s="17" customFormat="1"/>
-    <row r="855" s="17" customFormat="1"/>
-    <row r="856" s="17" customFormat="1"/>
-    <row r="857" s="17" customFormat="1"/>
-    <row r="858" s="17" customFormat="1"/>
-    <row r="859" s="17" customFormat="1"/>
-    <row r="860" s="17" customFormat="1"/>
-    <row r="861" s="17" customFormat="1"/>
-    <row r="862" s="17" customFormat="1"/>
-    <row r="863" s="17" customFormat="1"/>
-    <row r="864" s="17" customFormat="1"/>
-    <row r="865" s="17" customFormat="1"/>
-    <row r="866" s="17" customFormat="1"/>
-    <row r="867" s="17" customFormat="1"/>
-    <row r="868" s="17" customFormat="1"/>
-    <row r="869" s="17" customFormat="1"/>
-    <row r="870" s="17" customFormat="1"/>
-    <row r="871" s="17" customFormat="1"/>
-    <row r="872" s="17" customFormat="1"/>
-    <row r="873" s="17" customFormat="1"/>
-    <row r="874" s="17" customFormat="1"/>
-    <row r="875" s="17" customFormat="1"/>
-    <row r="876" s="17" customFormat="1"/>
-    <row r="877" s="17" customFormat="1"/>
-    <row r="878" s="17" customFormat="1"/>
-    <row r="879" s="17" customFormat="1"/>
-    <row r="880" s="17" customFormat="1"/>
-    <row r="881" s="17" customFormat="1"/>
-    <row r="882" s="17" customFormat="1"/>
-    <row r="883" s="17" customFormat="1"/>
-    <row r="884" s="17" customFormat="1"/>
-    <row r="885" s="17" customFormat="1"/>
-    <row r="886" s="17" customFormat="1"/>
-    <row r="887" s="17" customFormat="1"/>
-    <row r="888" s="17" customFormat="1"/>
-    <row r="889" s="17" customFormat="1"/>
-    <row r="890" s="17" customFormat="1"/>
-    <row r="891" s="17" customFormat="1"/>
-    <row r="892" s="17" customFormat="1"/>
-    <row r="893" s="17" customFormat="1"/>
-    <row r="894" s="17" customFormat="1"/>
-    <row r="895" s="17" customFormat="1"/>
-    <row r="896" s="17" customFormat="1"/>
-    <row r="897" s="17" customFormat="1"/>
-    <row r="898" s="17" customFormat="1"/>
-    <row r="899" s="17" customFormat="1"/>
-    <row r="900" s="17" customFormat="1"/>
-    <row r="901" s="17" customFormat="1"/>
-    <row r="902" s="17" customFormat="1"/>
-    <row r="903" s="17" customFormat="1"/>
-    <row r="904" s="17" customFormat="1"/>
-    <row r="905" s="17" customFormat="1"/>
-    <row r="906" s="17" customFormat="1"/>
-    <row r="907" s="17" customFormat="1"/>
-    <row r="908" s="17" customFormat="1"/>
-    <row r="909" s="17" customFormat="1"/>
-    <row r="910" s="17" customFormat="1"/>
-    <row r="911" s="17" customFormat="1"/>
-    <row r="912" s="17" customFormat="1"/>
-    <row r="913" s="17" customFormat="1"/>
-    <row r="914" s="17" customFormat="1"/>
-    <row r="915" s="17" customFormat="1"/>
-    <row r="916" s="17" customFormat="1"/>
-    <row r="917" s="17" customFormat="1"/>
-    <row r="918" s="17" customFormat="1"/>
-    <row r="919" s="17" customFormat="1"/>
-    <row r="920" s="17" customFormat="1"/>
-    <row r="921" s="17" customFormat="1"/>
-    <row r="922" s="17" customFormat="1"/>
-    <row r="923" s="17" customFormat="1"/>
-    <row r="924" s="17" customFormat="1"/>
-    <row r="925" s="17" customFormat="1"/>
-    <row r="926" s="17" customFormat="1"/>
-    <row r="927" s="17" customFormat="1"/>
-    <row r="928" s="17" customFormat="1"/>
-    <row r="929" s="17" customFormat="1"/>
-    <row r="930" s="17" customFormat="1"/>
-    <row r="931" s="17" customFormat="1"/>
-    <row r="932" s="17" customFormat="1"/>
-    <row r="933" s="17" customFormat="1"/>
-    <row r="934" s="17" customFormat="1"/>
-    <row r="935" s="17" customFormat="1"/>
-    <row r="936" s="17" customFormat="1"/>
-    <row r="937" s="17" customFormat="1"/>
-    <row r="938" s="17" customFormat="1"/>
-    <row r="939" s="17" customFormat="1"/>
-    <row r="940" s="17" customFormat="1"/>
-    <row r="941" s="17" customFormat="1"/>
-    <row r="942" s="17" customFormat="1"/>
-    <row r="943" s="17" customFormat="1"/>
-    <row r="944" s="17" customFormat="1"/>
-    <row r="945" s="17" customFormat="1"/>
-    <row r="946" s="17" customFormat="1"/>
-    <row r="947" s="17" customFormat="1"/>
-    <row r="948" s="17" customFormat="1"/>
-    <row r="949" s="17" customFormat="1"/>
-    <row r="950" s="17" customFormat="1"/>
-    <row r="951" s="17" customFormat="1"/>
-    <row r="952" s="17" customFormat="1"/>
-    <row r="953" s="17" customFormat="1"/>
-    <row r="954" s="17" customFormat="1"/>
-    <row r="955" s="17" customFormat="1"/>
-    <row r="956" s="17" customFormat="1"/>
-    <row r="957" s="17" customFormat="1"/>
-    <row r="958" s="17" customFormat="1"/>
-    <row r="959" s="17" customFormat="1"/>
-    <row r="960" s="17" customFormat="1"/>
-    <row r="961" s="17" customFormat="1"/>
-    <row r="962" s="17" customFormat="1"/>
-    <row r="963" s="17" customFormat="1"/>
-    <row r="964" s="17" customFormat="1"/>
-    <row r="965" s="17" customFormat="1"/>
-    <row r="966" s="17" customFormat="1"/>
-    <row r="967" s="17" customFormat="1"/>
-    <row r="968" s="17" customFormat="1"/>
-    <row r="969" s="17" customFormat="1"/>
-    <row r="970" s="17" customFormat="1"/>
-    <row r="971" s="17" customFormat="1"/>
-    <row r="972" s="17" customFormat="1"/>
-    <row r="973" s="17" customFormat="1"/>
-    <row r="974" s="17" customFormat="1"/>
-    <row r="975" s="17" customFormat="1"/>
-    <row r="976" s="17" customFormat="1"/>
-    <row r="977" s="17" customFormat="1"/>
-    <row r="978" s="17" customFormat="1"/>
-    <row r="979" s="17" customFormat="1"/>
-    <row r="980" s="17" customFormat="1"/>
-    <row r="981" s="17" customFormat="1"/>
-    <row r="982" s="17" customFormat="1"/>
-    <row r="983" s="17" customFormat="1"/>
-    <row r="984" s="17" customFormat="1"/>
-    <row r="985" s="17" customFormat="1"/>
-    <row r="986" s="17" customFormat="1"/>
-    <row r="987" s="17" customFormat="1"/>
-    <row r="988" s="17" customFormat="1"/>
-    <row r="989" s="17" customFormat="1"/>
-    <row r="990" s="17" customFormat="1"/>
-    <row r="991" s="17" customFormat="1"/>
-    <row r="992" s="17" customFormat="1"/>
-    <row r="993" s="17" customFormat="1"/>
-    <row r="994" s="17" customFormat="1"/>
-    <row r="995" s="17" customFormat="1"/>
-    <row r="996" s="17" customFormat="1"/>
-    <row r="997" s="17" customFormat="1"/>
-    <row r="998" s="17" customFormat="1"/>
-    <row r="999" s="17" customFormat="1"/>
-    <row r="1000" s="17" customFormat="1"/>
-    <row r="1001" s="17" customFormat="1"/>
-    <row r="1002" s="17" customFormat="1"/>
-    <row r="1003" s="17" customFormat="1"/>
-    <row r="1004" s="17" customFormat="1"/>
-    <row r="1005" s="17" customFormat="1"/>
-    <row r="1006" s="17" customFormat="1"/>
-    <row r="1007" s="17" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
